--- a/Code/Results/Cases/Case_7_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_5/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.449731603511566</v>
+        <v>1.59688576826224</v>
       </c>
       <c r="C2">
-        <v>0.8865005594464606</v>
+        <v>0.2728124079214069</v>
       </c>
       <c r="D2">
-        <v>0.02334347668686121</v>
+        <v>0.05389289655974494</v>
       </c>
       <c r="E2">
-        <v>0.1074008578879386</v>
+        <v>0.1186410797556547</v>
       </c>
       <c r="F2">
-        <v>2.916899437587489</v>
+        <v>2.426141673261853</v>
       </c>
       <c r="G2">
-        <v>0.0008068098873781622</v>
+        <v>0.0008377755545039547</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2336801996304132</v>
+        <v>0.2178974216144098</v>
       </c>
       <c r="K2">
-        <v>0.9809374303034559</v>
+        <v>1.77571144996017</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.277432813627286</v>
+        <v>1.9629046969293</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.994916411956467</v>
+        <v>1.398695430533195</v>
       </c>
       <c r="C3">
-        <v>0.765876419559163</v>
+        <v>0.2373694221092109</v>
       </c>
       <c r="D3">
-        <v>0.02047814989565211</v>
+        <v>0.04665685811022513</v>
       </c>
       <c r="E3">
-        <v>0.09529139260951069</v>
+        <v>0.1049717591917521</v>
       </c>
       <c r="F3">
-        <v>2.666193136161965</v>
+        <v>2.278874104983956</v>
       </c>
       <c r="G3">
-        <v>0.0008165026193174274</v>
+        <v>0.0008450519389659037</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2079545674794332</v>
+        <v>0.1954686364452343</v>
       </c>
       <c r="K3">
-        <v>0.8504343388629394</v>
+        <v>1.552874559541721</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.306518398318516</v>
+        <v>1.972097311548097</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.721522037663817</v>
+        <v>1.279149586252004</v>
       </c>
       <c r="C4">
-        <v>0.6933727160018179</v>
+        <v>0.2160003954125642</v>
       </c>
       <c r="D4">
-        <v>0.0187333135125769</v>
+        <v>0.04225202854873089</v>
       </c>
       <c r="E4">
-        <v>0.08804680344335836</v>
+        <v>0.09674815834556938</v>
       </c>
       <c r="F4">
-        <v>2.518894971867297</v>
+        <v>2.192312310903404</v>
       </c>
       <c r="G4">
-        <v>0.0008225973628477941</v>
+        <v>0.0008496478889117909</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1926533687070489</v>
+        <v>0.1820525333710989</v>
       </c>
       <c r="K4">
-        <v>0.7719877305702738</v>
+        <v>1.418473829029864</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.326520893099712</v>
+        <v>1.979808469990331</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.611392848839216</v>
+        <v>1.230913587107153</v>
       </c>
       <c r="C5">
-        <v>0.6641647652392351</v>
+        <v>0.2073793993880741</v>
       </c>
       <c r="D5">
-        <v>0.01802547521760545</v>
+        <v>0.04046531198676462</v>
       </c>
       <c r="E5">
-        <v>0.08513717013927291</v>
+        <v>0.09343533095008993</v>
       </c>
       <c r="F5">
-        <v>2.460369734542539</v>
+        <v>2.157935491674152</v>
       </c>
       <c r="G5">
-        <v>0.0008251193243767047</v>
+        <v>0.0008515541594475379</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1865283328134097</v>
+        <v>0.1766662319597145</v>
       </c>
       <c r="K5">
-        <v>0.7403869348291607</v>
+        <v>1.364245293875769</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.335176968009321</v>
+        <v>1.983444588512512</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.593178052708083</v>
+        <v>1.222931372440058</v>
       </c>
       <c r="C6">
-        <v>0.6593337237405592</v>
+        <v>0.2059528196182896</v>
       </c>
       <c r="D6">
-        <v>0.01790812015289234</v>
+        <v>0.04016909337303787</v>
       </c>
       <c r="E6">
-        <v>0.08465645338178973</v>
+        <v>0.09288743684710354</v>
       </c>
       <c r="F6">
-        <v>2.450737617839664</v>
+        <v>2.152279436908131</v>
       </c>
       <c r="G6">
-        <v>0.000825540469888209</v>
+        <v>0.00085187274247178</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1855175540737903</v>
+        <v>0.1757764892969078</v>
       </c>
       <c r="K6">
-        <v>0.735160255640551</v>
+        <v>1.355271454485518</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.336643859071557</v>
+        <v>1.984077462524724</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.720031851656927</v>
+        <v>1.278497190682572</v>
       </c>
       <c r="C7">
-        <v>0.692977507329033</v>
+        <v>0.2158837920990493</v>
       </c>
       <c r="D7">
-        <v>0.01872375496918366</v>
+        <v>0.04222790035972679</v>
       </c>
       <c r="E7">
-        <v>0.08800739735329444</v>
+        <v>0.0967033304790732</v>
       </c>
       <c r="F7">
-        <v>2.518099818492431</v>
+        <v>2.191845150593792</v>
       </c>
       <c r="G7">
-        <v>0.0008226312169596807</v>
+        <v>0.0008496734609397321</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1925703351779262</v>
+        <v>0.1819795751254389</v>
       </c>
       <c r="K7">
-        <v>0.7715601365003835</v>
+        <v>1.417740380627663</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.32663563045476</v>
+        <v>1.979855541645222</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.291571931080853</v>
+        <v>1.52806773955615</v>
       </c>
       <c r="C8">
-        <v>0.8445511216600323</v>
+        <v>0.2605026809292781</v>
       </c>
       <c r="D8">
-        <v>0.02235222076465604</v>
+        <v>0.05138918251633129</v>
       </c>
       <c r="E8">
-        <v>0.1031825551359802</v>
+        <v>0.1138900787635251</v>
       </c>
       <c r="F8">
-        <v>2.828971680206706</v>
+        <v>2.374516704559241</v>
       </c>
       <c r="G8">
-        <v>0.0008101236074178082</v>
+        <v>0.0008402585516201926</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2246985161318094</v>
+        <v>0.2100849430439382</v>
       </c>
       <c r="K8">
-        <v>0.9355550426407575</v>
+        <v>1.698331898615237</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.286994937756049</v>
+        <v>1.965629079833576</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.468719029476517</v>
+        <v>2.037415688660701</v>
       </c>
       <c r="C9">
-        <v>1.156938682859277</v>
+        <v>0.3517053905464422</v>
       </c>
       <c r="D9">
-        <v>0.02960583017859619</v>
+        <v>0.06972161404650734</v>
       </c>
       <c r="E9">
-        <v>0.1347259116098911</v>
+        <v>0.1491475470697665</v>
       </c>
       <c r="F9">
-        <v>3.499823266433822</v>
+        <v>2.766983287520262</v>
       </c>
       <c r="G9">
-        <v>0.0007866199839195125</v>
+        <v>0.0008227573159154208</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2923372510859252</v>
+        <v>0.2684371899616309</v>
       </c>
       <c r="K9">
-        <v>1.273367646013739</v>
+        <v>2.271167625895941</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.228003647451018</v>
+        <v>1.955411437953643</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.383621484594983</v>
+        <v>2.4283080720665</v>
       </c>
       <c r="C10">
-        <v>1.400134088478978</v>
+        <v>0.4218782879129037</v>
       </c>
       <c r="D10">
-        <v>0.03505718277084924</v>
+        <v>0.08351418390381582</v>
       </c>
       <c r="E10">
-        <v>0.1594230931387344</v>
+        <v>0.1763223841523711</v>
       </c>
       <c r="F10">
-        <v>4.043709692834227</v>
+        <v>3.081769343898287</v>
       </c>
       <c r="G10">
-        <v>0.0007697955582872757</v>
+        <v>0.0008103997204049761</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3459954043663487</v>
+        <v>0.313928116988194</v>
       </c>
       <c r="K10">
-        <v>1.536027750114101</v>
+        <v>2.711019854524096</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.198856426169243</v>
+        <v>1.960653565382941</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.814871751274893</v>
+        <v>2.610892577449363</v>
       </c>
       <c r="C11">
-        <v>1.514929839852186</v>
+        <v>0.4547192764371175</v>
       </c>
       <c r="D11">
-        <v>0.03757381689015915</v>
+        <v>0.08988408821730332</v>
       </c>
       <c r="E11">
-        <v>0.1711042809833074</v>
+        <v>0.1890423181507259</v>
       </c>
       <c r="F11">
-        <v>4.305854724572043</v>
+        <v>3.232116890743811</v>
       </c>
       <c r="G11">
-        <v>0.0007621904828268994</v>
+        <v>0.0008048653560666964</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3715696865274651</v>
+        <v>0.3353547196122548</v>
       </c>
       <c r="K11">
-        <v>1.659879445177992</v>
+        <v>2.916557597350703</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.189418928193206</v>
+        <v>1.96630548923585</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.980752757805703</v>
+        <v>2.68082446765635</v>
       </c>
       <c r="C12">
-        <v>1.559117215955666</v>
+        <v>0.4673091858040266</v>
       </c>
       <c r="D12">
-        <v>0.03853308978054315</v>
+        <v>0.09231227094743133</v>
       </c>
       <c r="E12">
-        <v>0.1756032224468242</v>
+        <v>0.1939181293586145</v>
       </c>
       <c r="F12">
-        <v>4.407601637495588</v>
+        <v>3.290209796152908</v>
       </c>
       <c r="G12">
-        <v>0.0007593129264086602</v>
+        <v>0.0008027801965156985</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3814516105732366</v>
+        <v>0.3435890786840616</v>
       </c>
       <c r="K12">
-        <v>1.707527559067003</v>
+        <v>2.995296079432592</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.186468951797465</v>
+        <v>1.96896297459088</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.944905504992562</v>
+        <v>2.665726384836887</v>
       </c>
       <c r="C13">
-        <v>1.549566713767263</v>
+        <v>0.4645905144379014</v>
       </c>
       <c r="D13">
-        <v>0.03832619652440883</v>
+        <v>0.09178856586274264</v>
       </c>
       <c r="E13">
-        <v>0.1746307355908812</v>
+        <v>0.1928652801477355</v>
       </c>
       <c r="F13">
-        <v>4.385572035408131</v>
+        <v>3.277644622676235</v>
       </c>
       <c r="G13">
-        <v>0.0007599326383637695</v>
+        <v>0.0008032288354326566</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.379314048059868</v>
+        <v>0.3418100383236435</v>
       </c>
       <c r="K13">
-        <v>1.697230286601879</v>
+        <v>2.978295949363599</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.187075225165515</v>
+        <v>1.968366819147263</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.828464670518201</v>
+        <v>2.616629412206578</v>
       </c>
       <c r="C14">
-        <v>1.518550054208617</v>
+        <v>0.4557518418276914</v>
       </c>
       <c r="D14">
-        <v>0.03765260479573129</v>
+        <v>0.0900835208221622</v>
       </c>
       <c r="E14">
-        <v>0.1714728264579151</v>
+        <v>0.189442224211966</v>
       </c>
       <c r="F14">
-        <v>4.314173565544621</v>
+        <v>3.236872183115253</v>
       </c>
       <c r="G14">
-        <v>0.0007619537272255513</v>
+        <v>0.0008046936085163166</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3723785312199368</v>
+        <v>0.3360296553827737</v>
       </c>
       <c r="K14">
-        <v>1.663783731918727</v>
+        <v>2.923016553703121</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.189163261406151</v>
+        <v>1.966513464818391</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.757490054781499</v>
+        <v>2.586662468825182</v>
       </c>
       <c r="C15">
-        <v>1.499648615594708</v>
+        <v>0.4503586056441691</v>
       </c>
       <c r="D15">
-        <v>0.03724086004531557</v>
+        <v>0.08904129242380066</v>
       </c>
       <c r="E15">
-        <v>0.1695487194116723</v>
+        <v>0.1873534328183482</v>
       </c>
       <c r="F15">
-        <v>4.270774361447423</v>
+        <v>3.212053052205789</v>
       </c>
       <c r="G15">
-        <v>0.0007631918546328004</v>
+        <v>0.0008055921410626407</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3681570188189767</v>
+        <v>0.3325051875535507</v>
       </c>
       <c r="K15">
-        <v>1.64339808213245</v>
+        <v>2.889278166961077</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.190525890289081</v>
+        <v>1.965447091169466</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.355774917258373</v>
+        <v>2.416480418622143</v>
       </c>
       <c r="C16">
-        <v>1.392725371543861</v>
+        <v>0.4197523328938075</v>
       </c>
       <c r="D16">
-        <v>0.03489353603015388</v>
+        <v>0.0831000096299519</v>
       </c>
       <c r="E16">
-        <v>0.1586696116530035</v>
+        <v>0.1754989380098593</v>
       </c>
       <c r="F16">
-        <v>4.026903804073072</v>
+        <v>3.072098548307054</v>
       </c>
       <c r="G16">
-        <v>0.0007702931614756632</v>
+        <v>0.0008107629961547203</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3443499629932631</v>
+        <v>0.3125438417300614</v>
       </c>
       <c r="K16">
-        <v>1.528031470474986</v>
+        <v>2.697707245799165</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.199556170931999</v>
+        <v>1.96035387216952</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.113464820313823</v>
+        <v>2.313371463345106</v>
       </c>
       <c r="C17">
-        <v>1.32827624366422</v>
+        <v>0.4012263334852832</v>
       </c>
       <c r="D17">
-        <v>0.03346360634802892</v>
+        <v>0.07948126388818366</v>
       </c>
       <c r="E17">
-        <v>0.1521174826290164</v>
+        <v>0.1683234009306886</v>
       </c>
       <c r="F17">
-        <v>3.881308588289698</v>
+        <v>2.988161152909811</v>
       </c>
       <c r="G17">
-        <v>0.000774658901254872</v>
+        <v>0.0008139561505240422</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3300633652759188</v>
+        <v>0.3004961302886073</v>
       </c>
       <c r="K17">
-        <v>1.458455948548007</v>
+        <v>2.581662667504929</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.206123998054679</v>
+        <v>1.958098205517587</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.975483632589999</v>
+        <v>2.254507485224735</v>
       </c>
       <c r="C18">
-        <v>1.291590772623351</v>
+        <v>0.3906557347930573</v>
       </c>
       <c r="D18">
-        <v>0.0326445435455156</v>
+        <v>0.07740870391231169</v>
       </c>
       <c r="E18">
-        <v>0.1483901067750786</v>
+        <v>0.1642294146090748</v>
       </c>
       <c r="F18">
-        <v>3.798927772956034</v>
+        <v>2.940546859872825</v>
       </c>
       <c r="G18">
-        <v>0.0007771748346712234</v>
+        <v>0.0008158011015832832</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.321953691787769</v>
+        <v>0.2936345486125873</v>
       </c>
       <c r="K18">
-        <v>1.418840711734617</v>
+        <v>2.515421460222171</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.210256276982761</v>
+        <v>1.957105192910518</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.928992662313078</v>
+        <v>2.234649958567218</v>
       </c>
       <c r="C19">
-        <v>1.279232357664569</v>
+        <v>0.3870907044892249</v>
       </c>
       <c r="D19">
-        <v>0.03236777839405391</v>
+        <v>0.07670842428957769</v>
       </c>
       <c r="E19">
-        <v>0.1471348456685853</v>
+        <v>0.1628487448429539</v>
       </c>
       <c r="F19">
-        <v>3.771258833647892</v>
+        <v>2.924535802149194</v>
       </c>
       <c r="G19">
-        <v>0.0007780276543957176</v>
+        <v>0.0008164272574206916</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3192255372252362</v>
+        <v>0.2913225678954063</v>
       </c>
       <c r="K19">
-        <v>1.405493481829367</v>
+        <v>2.493076472633675</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.211714231143318</v>
+        <v>1.956819898198347</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.139112595730978</v>
+        <v>2.324301158269577</v>
       </c>
       <c r="C20">
-        <v>1.33509643070056</v>
+        <v>0.4031895053242636</v>
       </c>
       <c r="D20">
-        <v>0.03361546677253813</v>
+        <v>0.07986555411181229</v>
       </c>
       <c r="E20">
-        <v>0.1528106235657702</v>
+        <v>0.1690837615837424</v>
       </c>
       <c r="F20">
-        <v>3.896664084229769</v>
+        <v>2.997026776884383</v>
       </c>
       <c r="G20">
-        <v>0.0007741936876144404</v>
+        <v>0.0008136153848721214</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3315728595058118</v>
+        <v>0.3017714930137316</v>
       </c>
       <c r="K20">
-        <v>1.465819885197121</v>
+        <v>2.593962746480486</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.205387637513169</v>
+        <v>1.958306496166927</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.862592658029826</v>
+        <v>2.631028009684712</v>
       </c>
       <c r="C21">
-        <v>1.527639912665791</v>
+        <v>0.4583436168936714</v>
       </c>
       <c r="D21">
-        <v>0.0378502759589594</v>
+        <v>0.09058387909988141</v>
       </c>
       <c r="E21">
-        <v>0.1723982316744781</v>
+        <v>0.1904459915309431</v>
       </c>
       <c r="F21">
-        <v>4.335074607528895</v>
+        <v>3.248815444372553</v>
       </c>
       <c r="G21">
-        <v>0.0007613600621338268</v>
+        <v>0.0008042630985947588</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3744100375877224</v>
+        <v>0.3377240916193927</v>
       </c>
       <c r="K21">
-        <v>1.673586436045369</v>
+        <v>2.939227822069967</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.188532372706931</v>
+        <v>1.96704339710034</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.350683421806423</v>
+        <v>2.836160996459171</v>
       </c>
       <c r="C22">
-        <v>1.657725162543045</v>
+        <v>0.4952980777190703</v>
       </c>
       <c r="D22">
-        <v>0.04065514193685971</v>
+        <v>0.09768365716945482</v>
       </c>
       <c r="E22">
-        <v>0.1856467449706116</v>
+        <v>0.2047557791936114</v>
       </c>
       <c r="F22">
-        <v>4.636257823074828</v>
+        <v>3.420204961225807</v>
       </c>
       <c r="G22">
-        <v>0.0007529833633010963</v>
+        <v>0.0007982114680162901</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.4035753778587434</v>
+        <v>0.3619323490575539</v>
       </c>
       <c r="K22">
-        <v>1.813805299721167</v>
+        <v>3.170225634781787</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.181196177516256</v>
+        <v>1.975794416964121</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.088630897645089</v>
+        <v>2.726212227994608</v>
       </c>
       <c r="C23">
-        <v>1.58786345370271</v>
+        <v>0.4754838737897273</v>
       </c>
       <c r="D23">
-        <v>0.03915436116398041</v>
+        <v>0.09388487969086157</v>
       </c>
       <c r="E23">
-        <v>0.1785306360274674</v>
+        <v>0.197083770666616</v>
       </c>
       <c r="F23">
-        <v>4.474034823352525</v>
+        <v>3.328058624223274</v>
       </c>
       <c r="G23">
-        <v>0.0007574549073446302</v>
+        <v>0.0008014364908709064</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3878911252600545</v>
+        <v>0.3489413716310139</v>
       </c>
       <c r="K23">
-        <v>1.738517388665585</v>
+        <v>3.046404210004312</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.184747120025108</v>
+        <v>1.970828428243451</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.127513136073958</v>
+        <v>2.319358559237287</v>
       </c>
       <c r="C24">
-        <v>1.332011889059402</v>
+        <v>0.4023017069895047</v>
       </c>
       <c r="D24">
-        <v>0.03354680133116261</v>
+        <v>0.07969179204884114</v>
       </c>
       <c r="E24">
-        <v>0.1524971322524564</v>
+        <v>0.1687399055219814</v>
       </c>
       <c r="F24">
-        <v>3.889717767598455</v>
+        <v>2.993016636992451</v>
       </c>
       <c r="G24">
-        <v>0.0007744039915864368</v>
+        <v>0.0008137694163591977</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.330890095794544</v>
+        <v>0.3011947007915126</v>
       </c>
       <c r="K24">
-        <v>1.46248946014461</v>
+        <v>2.58840041231511</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.20571944163261</v>
+        <v>1.958211385209097</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.142740186889228</v>
+        <v>1.89704910584959</v>
       </c>
       <c r="C25">
-        <v>1.070384633055426</v>
+        <v>0.3265479221332726</v>
       </c>
       <c r="D25">
-        <v>0.02762514636067692</v>
+        <v>0.06471315531451438</v>
       </c>
       <c r="E25">
-        <v>0.1259601250940428</v>
+        <v>0.1394115669078886</v>
       </c>
       <c r="F25">
-        <v>3.310481674575811</v>
+        <v>2.65660334166472</v>
       </c>
       <c r="G25">
-        <v>0.0007928859920085354</v>
+        <v>0.0008273973048682218</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.273434572754951</v>
+        <v>0.252241957432318</v>
       </c>
       <c r="K25">
-        <v>1.17980765589374</v>
+        <v>2.113274170959045</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.241692896792486</v>
+        <v>1.956091580620523</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.59688576826224</v>
+        <v>1.047706191274386</v>
       </c>
       <c r="C2">
-        <v>0.2728124079214069</v>
+        <v>0.2287294055072095</v>
       </c>
       <c r="D2">
-        <v>0.05389289655974494</v>
+        <v>0.1756474530622256</v>
       </c>
       <c r="E2">
-        <v>0.1186410797556547</v>
+        <v>0.1756717132099581</v>
       </c>
       <c r="F2">
-        <v>2.426141673261853</v>
+        <v>1.10162419710818</v>
       </c>
       <c r="G2">
-        <v>0.0008377755545039547</v>
+        <v>0.7377658975163257</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0007101079966904678</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2178974216144098</v>
+        <v>0.5344525396650113</v>
       </c>
       <c r="K2">
-        <v>1.77571144996017</v>
+        <v>0.4531516856757207</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2182353504155472</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.236247136526913</v>
       </c>
       <c r="N2">
-        <v>1.9629046969293</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.9116625362380137</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.398695430533195</v>
+        <v>0.9108364963104236</v>
       </c>
       <c r="C3">
-        <v>0.2373694221092109</v>
+        <v>0.1988252950696108</v>
       </c>
       <c r="D3">
-        <v>0.04665685811022513</v>
+        <v>0.154221458867795</v>
       </c>
       <c r="E3">
-        <v>0.1049717591917521</v>
+        <v>0.1548461383966711</v>
       </c>
       <c r="F3">
-        <v>2.278874104983956</v>
+        <v>1.03958280947694</v>
       </c>
       <c r="G3">
-        <v>0.0008450519389659037</v>
+        <v>0.6998952994288885</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001862651185666087</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1954686364452343</v>
+        <v>0.5219862344995647</v>
       </c>
       <c r="K3">
-        <v>1.552874559541721</v>
+        <v>0.4449863459535521</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1928628807857109</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.074714959451967</v>
       </c>
       <c r="N3">
-        <v>1.972097311548097</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.9486452953656777</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.279149586252004</v>
+        <v>0.8270056032263824</v>
       </c>
       <c r="C4">
-        <v>0.2160003954125642</v>
+        <v>0.1805167741518403</v>
       </c>
       <c r="D4">
-        <v>0.04225202854873089</v>
+        <v>0.1410779468190526</v>
       </c>
       <c r="E4">
-        <v>0.09674815834556938</v>
+        <v>0.1420720192636686</v>
       </c>
       <c r="F4">
-        <v>2.192312310903404</v>
+        <v>1.002504288551023</v>
       </c>
       <c r="G4">
-        <v>0.0008496478889117909</v>
+        <v>0.6775715820155028</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00287864258705961</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1820525333710989</v>
+        <v>0.5148889323445758</v>
       </c>
       <c r="K4">
-        <v>1.418473829029864</v>
+        <v>0.4405528744405949</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1772980027531972</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.9757886203959174</v>
       </c>
       <c r="N4">
-        <v>1.979808469990331</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.9722058790121615</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.230913587107153</v>
+        <v>0.7928844423837518</v>
       </c>
       <c r="C5">
-        <v>0.2073793993880741</v>
+        <v>0.1730661790964376</v>
       </c>
       <c r="D5">
-        <v>0.04046531198676462</v>
+        <v>0.1357233060954002</v>
       </c>
       <c r="E5">
-        <v>0.09343533095008993</v>
+        <v>0.1368675776351651</v>
       </c>
       <c r="F5">
-        <v>2.157935491674152</v>
+        <v>0.9876348023328063</v>
       </c>
       <c r="G5">
-        <v>0.0008515541594475379</v>
+        <v>0.6686946960265203</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.003366424133327106</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1766662319597145</v>
+        <v>0.5121307579848065</v>
       </c>
       <c r="K5">
-        <v>1.364245293875769</v>
+        <v>0.4388855743532076</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1709556937231795</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.93552517705848</v>
       </c>
       <c r="N5">
-        <v>1.983444588512512</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.9820160035456844</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.222931372440058</v>
+        <v>0.787220774861197</v>
       </c>
       <c r="C6">
-        <v>0.2059528196182896</v>
+        <v>0.1718295500318874</v>
       </c>
       <c r="D6">
-        <v>0.04016909337303787</v>
+        <v>0.1348342141372711</v>
       </c>
       <c r="E6">
-        <v>0.09288743684710354</v>
+        <v>0.1360033912990168</v>
       </c>
       <c r="F6">
-        <v>2.152279436908131</v>
+        <v>0.9851798257485314</v>
       </c>
       <c r="G6">
-        <v>0.00085187274247178</v>
+        <v>0.6672336163601926</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003451767010685391</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1757764892969078</v>
+        <v>0.5116806892545469</v>
       </c>
       <c r="K6">
-        <v>1.355271454485518</v>
+        <v>0.4386169542084559</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.169902503547263</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.9288420700730171</v>
       </c>
       <c r="N6">
-        <v>1.984077462524724</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.9836574341149262</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.278497190682572</v>
+        <v>0.8265452837891587</v>
       </c>
       <c r="C7">
-        <v>0.2158837920990493</v>
+        <v>0.1804162550391197</v>
       </c>
       <c r="D7">
-        <v>0.04222790035972679</v>
+        <v>0.1410057284646768</v>
       </c>
       <c r="E7">
-        <v>0.0967033304790732</v>
+        <v>0.1420018285600797</v>
       </c>
       <c r="F7">
-        <v>2.191845150593792</v>
+        <v>1.002302799701631</v>
       </c>
       <c r="G7">
-        <v>0.0008496734609397321</v>
+        <v>0.6774509908459834</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.002884927222446487</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1819795751254389</v>
+        <v>0.5148511997206953</v>
       </c>
       <c r="K7">
-        <v>1.417740380627663</v>
+        <v>0.4405298326835556</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1772124699765101</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.9752454300496538</v>
       </c>
       <c r="N7">
-        <v>1.979855541645222</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.9723373426436783</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.52806773955615</v>
+        <v>1.000463203857606</v>
       </c>
       <c r="C8">
-        <v>0.2605026809292781</v>
+        <v>0.2184056715035467</v>
       </c>
       <c r="D8">
-        <v>0.05138918251633129</v>
+        <v>0.1682562549873836</v>
       </c>
       <c r="E8">
-        <v>0.1138900787635251</v>
+        <v>0.1684870728419554</v>
       </c>
       <c r="F8">
-        <v>2.374516704559241</v>
+        <v>1.08001239862601</v>
       </c>
       <c r="G8">
-        <v>0.0008402585516201926</v>
+        <v>0.7245070396399882</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001041195340842238</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2100849430439382</v>
+        <v>0.5300348094251035</v>
       </c>
       <c r="K8">
-        <v>1.698331898615237</v>
+        <v>0.4502118795102454</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2094821839201586</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.180489013125339</v>
       </c>
       <c r="N8">
-        <v>1.965629079833576</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.9242337611209042</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.037415688660701</v>
+        <v>1.343734021077267</v>
       </c>
       <c r="C9">
-        <v>0.3517053905464422</v>
+        <v>0.2934673306486957</v>
       </c>
       <c r="D9">
-        <v>0.06972161404650734</v>
+        <v>0.2218695748094177</v>
       </c>
       <c r="E9">
-        <v>0.1491475470697665</v>
+        <v>0.2206292878752691</v>
       </c>
       <c r="F9">
-        <v>2.766983287520262</v>
+        <v>1.241172202958737</v>
       </c>
       <c r="G9">
-        <v>0.0008227573159154208</v>
+        <v>0.8247947763838823</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4.934160559821876E-05</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2684371899616309</v>
+        <v>0.5645185680228622</v>
       </c>
       <c r="K9">
-        <v>2.271167625895941</v>
+        <v>0.474109786542634</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2730175963752401</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.585697047296094</v>
       </c>
       <c r="N9">
-        <v>1.955411437953643</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.8369291106526262</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.4283080720665</v>
+        <v>1.592089618541479</v>
       </c>
       <c r="C10">
-        <v>0.4218782879129037</v>
+        <v>0.3455290029875755</v>
       </c>
       <c r="D10">
-        <v>0.08351418390381582</v>
+        <v>0.2553013441811203</v>
       </c>
       <c r="E10">
-        <v>0.1763223841523711</v>
+        <v>0.2491959964899806</v>
       </c>
       <c r="F10">
-        <v>3.081769343898287</v>
+        <v>1.346296121950132</v>
       </c>
       <c r="G10">
-        <v>0.0008103997204049761</v>
+        <v>0.891949322589042</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001259171715631613</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.313928116988194</v>
+        <v>0.5870306464036048</v>
       </c>
       <c r="K10">
-        <v>2.711019854524096</v>
+        <v>0.4893220503237927</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3050032281081627</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.875847223827975</v>
       </c>
       <c r="N10">
-        <v>1.960653565382941</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.7746298431978396</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.610892577449363</v>
+        <v>1.65238431317033</v>
       </c>
       <c r="C11">
-        <v>0.4547192764371175</v>
+        <v>0.3377934402536766</v>
       </c>
       <c r="D11">
-        <v>0.08988408821730332</v>
+        <v>0.218936102483724</v>
       </c>
       <c r="E11">
-        <v>0.1890423181507259</v>
+        <v>0.1825810471422216</v>
       </c>
       <c r="F11">
-        <v>3.232116890743811</v>
+        <v>1.228147680778108</v>
       </c>
       <c r="G11">
-        <v>0.0008048653560666964</v>
+        <v>0.8185176263383909</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01979999938887289</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3353547196122548</v>
+        <v>0.5457274226837256</v>
       </c>
       <c r="K11">
-        <v>2.916557597350703</v>
+        <v>0.4478278916769369</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2037822524828528</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.91855865213239</v>
       </c>
       <c r="N11">
-        <v>1.96630548923585</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.7276698688893628</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.68082446765635</v>
+        <v>1.649679628127217</v>
       </c>
       <c r="C12">
-        <v>0.4673091858040266</v>
+        <v>0.3203857509223837</v>
       </c>
       <c r="D12">
-        <v>0.09231227094743133</v>
+        <v>0.1839142063456478</v>
       </c>
       <c r="E12">
-        <v>0.1939181293586145</v>
+        <v>0.1302038322541534</v>
       </c>
       <c r="F12">
-        <v>3.290209796152908</v>
+        <v>1.110018524845046</v>
       </c>
       <c r="G12">
-        <v>0.0008027801965156985</v>
+        <v>0.744179899500736</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05826737387840808</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3435890786840616</v>
+        <v>0.5067755950131527</v>
       </c>
       <c r="K12">
-        <v>2.995296079432592</v>
+        <v>0.410583404677844</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1318057297439381</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.891987701273308</v>
       </c>
       <c r="N12">
-        <v>1.96896297459088</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.7067154760404541</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.665726384836887</v>
+        <v>1.598320021270496</v>
       </c>
       <c r="C13">
-        <v>0.4645905144379014</v>
+        <v>0.2946776574239607</v>
       </c>
       <c r="D13">
-        <v>0.09178856586274264</v>
+        <v>0.1481508681299175</v>
       </c>
       <c r="E13">
-        <v>0.1928652801477355</v>
+        <v>0.08602284182673614</v>
       </c>
       <c r="F13">
-        <v>3.277644622676235</v>
+        <v>0.9853220586720255</v>
       </c>
       <c r="G13">
-        <v>0.0008032288354326566</v>
+        <v>0.6648292738695289</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.113681297488057</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3418100383236435</v>
+        <v>0.4673087967549634</v>
       </c>
       <c r="K13">
-        <v>2.978295949363599</v>
+        <v>0.3743295755007168</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07841674550006772</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.810767685556243</v>
       </c>
       <c r="N13">
-        <v>1.968366819147263</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.7035766887290587</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.616629412206578</v>
+        <v>1.540611728167136</v>
       </c>
       <c r="C14">
-        <v>0.4557518418276914</v>
+        <v>0.2731522821727026</v>
       </c>
       <c r="D14">
-        <v>0.0900835208221622</v>
+        <v>0.1234076972317411</v>
       </c>
       <c r="E14">
-        <v>0.189442224211966</v>
+        <v>0.06040530012788992</v>
       </c>
       <c r="F14">
-        <v>3.236872183115253</v>
+        <v>0.8964432560718905</v>
       </c>
       <c r="G14">
-        <v>0.0008046936085163166</v>
+        <v>0.607824470991801</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1627815154152472</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3360296553827737</v>
+        <v>0.4397999787604903</v>
       </c>
       <c r="K14">
-        <v>2.923016553703121</v>
+        <v>0.3497630527862761</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.05243444175149392</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.729668713566383</v>
       </c>
       <c r="N14">
-        <v>1.966513464818391</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.7098957039716751</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.586662468825182</v>
+        <v>1.516418022183387</v>
       </c>
       <c r="C15">
-        <v>0.4503586056441691</v>
+        <v>0.2661758022904905</v>
       </c>
       <c r="D15">
-        <v>0.08904129242380066</v>
+        <v>0.1169381495782318</v>
       </c>
       <c r="E15">
-        <v>0.1873534328183482</v>
+        <v>0.05469980733404789</v>
       </c>
       <c r="F15">
-        <v>3.212053052205789</v>
+        <v>0.8730765689287949</v>
       </c>
       <c r="G15">
-        <v>0.0008055921410626407</v>
+        <v>0.5927331207346924</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.175198496250502</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3325051875535507</v>
+        <v>0.4329447338901389</v>
       </c>
       <c r="K15">
-        <v>2.889278166961077</v>
+        <v>0.3438930516655851</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.0475052039454642</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.698588698237302</v>
       </c>
       <c r="N15">
-        <v>1.965447091169466</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.7143926724899021</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.416480418622143</v>
+        <v>1.420880404191763</v>
       </c>
       <c r="C16">
-        <v>0.4197523328938075</v>
+        <v>0.249722002581251</v>
       </c>
       <c r="D16">
-        <v>0.0831000096299519</v>
+        <v>0.1109879937969254</v>
       </c>
       <c r="E16">
-        <v>0.1754989380098593</v>
+        <v>0.05292956041341412</v>
       </c>
       <c r="F16">
-        <v>3.072098548307054</v>
+        <v>0.8550810542971874</v>
       </c>
       <c r="G16">
-        <v>0.0008107629961547203</v>
+        <v>0.5806633441520432</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1621002726048744</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3125438417300614</v>
+        <v>0.4314117596860569</v>
       </c>
       <c r="K16">
-        <v>2.697707245799165</v>
+        <v>0.3446761352278926</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.04654303622774236</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.592044303758314</v>
       </c>
       <c r="N16">
-        <v>1.96035387216952</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.7392239385905111</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.313371463345106</v>
+        <v>1.378292699446433</v>
       </c>
       <c r="C17">
-        <v>0.4012263334852832</v>
+        <v>0.2484056363789477</v>
       </c>
       <c r="D17">
-        <v>0.07948126388818366</v>
+        <v>0.119109110525244</v>
       </c>
       <c r="E17">
-        <v>0.1683234009306886</v>
+        <v>0.06402168569810485</v>
       </c>
       <c r="F17">
-        <v>2.988161152909811</v>
+        <v>0.8878875415166192</v>
       </c>
       <c r="G17">
-        <v>0.0008139561505240422</v>
+        <v>0.6014596610178842</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1241842158879223</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3004961302886073</v>
+        <v>0.4448011999553216</v>
       </c>
       <c r="K17">
-        <v>2.581662667504929</v>
+        <v>0.3582836194252899</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.05747198270371001</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.553293629101859</v>
       </c>
       <c r="N17">
-        <v>1.958098205517587</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.7550288164568633</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.254507485224735</v>
+        <v>1.375900323646533</v>
       </c>
       <c r="C18">
-        <v>0.3906557347930573</v>
+        <v>0.2601181773275698</v>
       </c>
       <c r="D18">
-        <v>0.07740870391231169</v>
+        <v>0.1417599454263296</v>
       </c>
       <c r="E18">
-        <v>0.1642294146090748</v>
+        <v>0.09243643669156398</v>
       </c>
       <c r="F18">
-        <v>2.940546859872825</v>
+        <v>0.9704648109023566</v>
       </c>
       <c r="G18">
-        <v>0.0008158011015832832</v>
+        <v>0.6540400857552697</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07133635315211961</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2936345486125873</v>
+        <v>0.4730031153474243</v>
       </c>
       <c r="K18">
-        <v>2.515421460222171</v>
+        <v>0.3850591738663631</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08989022662809276</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.567988367470008</v>
       </c>
       <c r="N18">
-        <v>1.957105192910518</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.7674226931102117</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.234649958567218</v>
+        <v>1.405874458339213</v>
       </c>
       <c r="C19">
-        <v>0.3870907044892249</v>
+        <v>0.2819215248333649</v>
       </c>
       <c r="D19">
-        <v>0.07670842428957769</v>
+        <v>0.1769384809339698</v>
       </c>
       <c r="E19">
-        <v>0.1628487448429539</v>
+        <v>0.1404581363271795</v>
       </c>
       <c r="F19">
-        <v>2.924535802149194</v>
+        <v>1.091608282031984</v>
       </c>
       <c r="G19">
-        <v>0.0008164272574206916</v>
+        <v>0.7308546781922871</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02618916665748117</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2913225678954063</v>
+        <v>0.5121226681419131</v>
       </c>
       <c r="K19">
-        <v>2.493076472633675</v>
+        <v>0.4217196340587748</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1525087055779721</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.624775179532691</v>
       </c>
       <c r="N19">
-        <v>1.956819898198347</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.779961982243524</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.324301158269577</v>
+        <v>1.526461237634322</v>
       </c>
       <c r="C20">
-        <v>0.4031895053242636</v>
+        <v>0.331668894330619</v>
       </c>
       <c r="D20">
-        <v>0.07986555411181229</v>
+        <v>0.2462555492180769</v>
       </c>
       <c r="E20">
-        <v>0.1690837615837424</v>
+        <v>0.2412624965881207</v>
       </c>
       <c r="F20">
-        <v>2.997026776884383</v>
+        <v>1.317415033454779</v>
       </c>
       <c r="G20">
-        <v>0.0008136153848721214</v>
+        <v>0.8733762189966114</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0007943386592916823</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3017714930137316</v>
+        <v>0.5806253711908624</v>
       </c>
       <c r="K20">
-        <v>2.593962746480486</v>
+        <v>0.4848332559707202</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.295952060691647</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.799037155124296</v>
       </c>
       <c r="N20">
-        <v>1.958306496166927</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.7905011020264929</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.631028009684712</v>
+        <v>1.727330896348718</v>
       </c>
       <c r="C21">
-        <v>0.4583436168936714</v>
+        <v>0.3774971555251057</v>
       </c>
       <c r="D21">
-        <v>0.09058387909988141</v>
+        <v>0.281565965017208</v>
       </c>
       <c r="E21">
-        <v>0.1904459915309431</v>
+        <v>0.2787995998742545</v>
       </c>
       <c r="F21">
-        <v>3.248815444372553</v>
+        <v>1.430852395941443</v>
       </c>
       <c r="G21">
-        <v>0.0008042630985947588</v>
+        <v>0.9461352523353241</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.002277786471326815</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3377240916193927</v>
+        <v>0.6085351288670324</v>
       </c>
       <c r="K21">
-        <v>2.939227822069967</v>
+        <v>0.5066965224928097</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3439589787354294</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>2.038708214646419</v>
       </c>
       <c r="N21">
-        <v>1.96704339710034</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.7486842528561937</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.836160996459171</v>
+        <v>1.856231672419398</v>
       </c>
       <c r="C22">
-        <v>0.4952980777190703</v>
+        <v>0.4057732990600869</v>
       </c>
       <c r="D22">
-        <v>0.09768365716945482</v>
+        <v>0.3015821324764971</v>
       </c>
       <c r="E22">
-        <v>0.2047557791936114</v>
+        <v>0.2983380879185162</v>
       </c>
       <c r="F22">
-        <v>3.420204961225807</v>
+        <v>1.496500187303596</v>
       </c>
       <c r="G22">
-        <v>0.0007982114680162901</v>
+        <v>0.9887807870059078</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.003703374631192302</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3619323490575539</v>
+        <v>0.624404308191842</v>
       </c>
       <c r="K22">
-        <v>3.170225634781787</v>
+        <v>0.5188151154795548</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3678083089698703</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2.190986721716342</v>
       </c>
       <c r="N22">
-        <v>1.975794416964121</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.7208717879579787</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.726212227994608</v>
+        <v>1.787365546242427</v>
       </c>
       <c r="C23">
-        <v>0.4754838737897273</v>
+        <v>0.3906640036489364</v>
       </c>
       <c r="D23">
-        <v>0.09388487969086157</v>
+        <v>0.2908909350374955</v>
       </c>
       <c r="E23">
-        <v>0.197083770666616</v>
+        <v>0.2878997369173817</v>
       </c>
       <c r="F23">
-        <v>3.328058624223274</v>
+        <v>1.461316271039749</v>
       </c>
       <c r="G23">
-        <v>0.0008014364908709064</v>
+        <v>0.9658874796762404</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.002902024938908676</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3489413716310139</v>
+        <v>0.6158636734352285</v>
       </c>
       <c r="K23">
-        <v>3.046404210004312</v>
+        <v>0.5122727241283158</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.355065428711498</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>2.109627485095587</v>
       </c>
       <c r="N23">
-        <v>1.970828428243451</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.7356239904138135</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.319358559237287</v>
+        <v>1.527963635393434</v>
       </c>
       <c r="C24">
-        <v>0.4023017069895047</v>
+        <v>0.3338030126234912</v>
       </c>
       <c r="D24">
-        <v>0.07969179204884114</v>
+        <v>0.2505653670992842</v>
       </c>
       <c r="E24">
-        <v>0.1687399055219814</v>
+        <v>0.2485737810552635</v>
       </c>
       <c r="F24">
-        <v>2.993016636992451</v>
+        <v>1.331147662384424</v>
       </c>
       <c r="G24">
-        <v>0.0008137694163591977</v>
+        <v>0.8819761982969965</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0007242512600438289</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3011947007915126</v>
+        <v>0.5850221513048268</v>
       </c>
       <c r="K24">
-        <v>2.58840041231511</v>
+        <v>0.4890730379309929</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3070864932218598</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.803235945344198</v>
       </c>
       <c r="N24">
-        <v>1.958211385209097</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.7934635577060227</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.89704910584959</v>
+        <v>1.2505467495549</v>
       </c>
       <c r="C25">
-        <v>0.3265479221332726</v>
+        <v>0.2730787839967093</v>
       </c>
       <c r="D25">
-        <v>0.06471315531451438</v>
+        <v>0.2073351166860533</v>
       </c>
       <c r="E25">
-        <v>0.1394115669078886</v>
+        <v>0.2064862199538524</v>
       </c>
       <c r="F25">
-        <v>2.65660334166472</v>
+        <v>1.196529382222792</v>
       </c>
       <c r="G25">
-        <v>0.0008273973048682218</v>
+        <v>0.7967125263901238</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.102498156724252E-05</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.252241957432318</v>
+        <v>0.5546432438884921</v>
       </c>
       <c r="K25">
-        <v>2.113274170959045</v>
+        <v>0.4670737180746372</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2557809366690549</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.475680083301569</v>
       </c>
       <c r="N25">
-        <v>1.956091580620523</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8597579245884752</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.047706191274386</v>
+        <v>0.9833747547697271</v>
       </c>
       <c r="C2">
-        <v>0.2287294055072095</v>
+        <v>0.2653879901129983</v>
       </c>
       <c r="D2">
-        <v>0.1756474530622256</v>
+        <v>0.1881798169629718</v>
       </c>
       <c r="E2">
-        <v>0.1756717132099581</v>
+        <v>0.1800036104505836</v>
       </c>
       <c r="F2">
-        <v>1.10162419710818</v>
+        <v>1.024437655060467</v>
       </c>
       <c r="G2">
-        <v>0.7377658975163257</v>
+        <v>0.6483470740925412</v>
       </c>
       <c r="H2">
-        <v>0.0007101079966904678</v>
+        <v>0.0005552864764781784</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5344525396650113</v>
+        <v>0.521072833035845</v>
       </c>
       <c r="K2">
-        <v>0.4531516856757207</v>
+        <v>0.3943595336580401</v>
       </c>
       <c r="L2">
-        <v>0.2182353504155472</v>
+        <v>0.1955461184446108</v>
       </c>
       <c r="M2">
-        <v>1.236247136526913</v>
+        <v>0.1085334136324114</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.217440391231392</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.224022601961536</v>
       </c>
       <c r="P2">
-        <v>0.9116625362380137</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.8641514917338942</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9108364963104236</v>
+        <v>0.8593152118665728</v>
       </c>
       <c r="C3">
-        <v>0.1988252950696108</v>
+        <v>0.2289121917750947</v>
       </c>
       <c r="D3">
-        <v>0.154221458867795</v>
+        <v>0.1649961347878133</v>
       </c>
       <c r="E3">
-        <v>0.1548461383966711</v>
+        <v>0.1589213431091743</v>
       </c>
       <c r="F3">
-        <v>1.03958280947694</v>
+        <v>0.9713308906093374</v>
       </c>
       <c r="G3">
-        <v>0.6998952994288885</v>
+        <v>0.6205277001630094</v>
       </c>
       <c r="H3">
-        <v>0.001862651185666087</v>
+        <v>0.001520045078680532</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5219862344995647</v>
+        <v>0.5079448132852065</v>
       </c>
       <c r="K3">
-        <v>0.4449863459535521</v>
+        <v>0.3905490214450538</v>
       </c>
       <c r="L3">
-        <v>0.1928628807857109</v>
+        <v>0.1990223332379948</v>
       </c>
       <c r="M3">
-        <v>1.074714959451967</v>
+        <v>0.1032173882812302</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1928109236875954</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.065461729814103</v>
       </c>
       <c r="P3">
-        <v>0.9486452953656777</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.8989769488040888</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8270056032263824</v>
+        <v>0.7830474855429657</v>
       </c>
       <c r="C4">
-        <v>0.1805167741518403</v>
+        <v>0.2066837307236966</v>
       </c>
       <c r="D4">
-        <v>0.1410779468190526</v>
+        <v>0.1507968145628951</v>
       </c>
       <c r="E4">
-        <v>0.1420720192636686</v>
+        <v>0.1459882079277399</v>
       </c>
       <c r="F4">
-        <v>1.002504288551023</v>
+        <v>0.9394774723277663</v>
       </c>
       <c r="G4">
-        <v>0.6775715820155028</v>
+        <v>0.6042919299147513</v>
       </c>
       <c r="H4">
-        <v>0.00287864258705961</v>
+        <v>0.002381383182644581</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5148889323445758</v>
+        <v>0.500106004463106</v>
       </c>
       <c r="K4">
-        <v>0.4405528744405949</v>
+        <v>0.388600140530027</v>
       </c>
       <c r="L4">
-        <v>0.1772980027531972</v>
+        <v>0.201235326453979</v>
       </c>
       <c r="M4">
-        <v>0.9757886203959174</v>
+        <v>0.1006885383607514</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1776842246957457</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9682085182038236</v>
       </c>
       <c r="P4">
-        <v>0.9722058790121615</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.9211335812131294</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7928844423837518</v>
+        <v>0.751936167227484</v>
       </c>
       <c r="C5">
-        <v>0.1730661790964376</v>
+        <v>0.1976641706525157</v>
       </c>
       <c r="D5">
-        <v>0.1357233060954002</v>
+        <v>0.145017952879229</v>
       </c>
       <c r="E5">
-        <v>0.1368675776351651</v>
+        <v>0.1407189222575518</v>
       </c>
       <c r="F5">
-        <v>0.9876348023328063</v>
+        <v>0.9266745864090566</v>
       </c>
       <c r="G5">
-        <v>0.6686946960265203</v>
+        <v>0.5978755859416367</v>
       </c>
       <c r="H5">
-        <v>0.003366424133327106</v>
+        <v>0.002796822708848845</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5121307579848065</v>
+        <v>0.4969645133385541</v>
       </c>
       <c r="K5">
-        <v>0.4388855743532076</v>
+        <v>0.3878995889182306</v>
       </c>
       <c r="L5">
-        <v>0.1709556937231795</v>
+        <v>0.2021566348493025</v>
       </c>
       <c r="M5">
-        <v>0.93552517705848</v>
+        <v>0.09983946975038549</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1715164569790204</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9285919285026978</v>
       </c>
       <c r="P5">
-        <v>0.9820160035456844</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.9303526787840708</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.787220774861197</v>
+        <v>0.7467680280254285</v>
       </c>
       <c r="C6">
-        <v>0.1718295500318874</v>
+        <v>0.1961687198607507</v>
       </c>
       <c r="D6">
-        <v>0.1348342141372711</v>
+        <v>0.1440587874856618</v>
       </c>
       <c r="E6">
-        <v>0.1360033912990168</v>
+        <v>0.1398439747148821</v>
       </c>
       <c r="F6">
-        <v>0.9851798257485314</v>
+        <v>0.9245590636499941</v>
       </c>
       <c r="G6">
-        <v>0.6672336163601926</v>
+        <v>0.5968218663251719</v>
       </c>
       <c r="H6">
-        <v>0.003451767010685391</v>
+        <v>0.002869606598964736</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5116806892545469</v>
+        <v>0.4964459830864882</v>
       </c>
       <c r="K6">
-        <v>0.4386169542084559</v>
+        <v>0.3877887861841458</v>
       </c>
       <c r="L6">
-        <v>0.169902503547263</v>
+        <v>0.2023107874268284</v>
       </c>
       <c r="M6">
-        <v>0.9288420700730171</v>
+        <v>0.09970934563744294</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1704920209101459</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9220142064148718</v>
       </c>
       <c r="P6">
-        <v>0.9836574341149262</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.9318948575053962</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8265452837891587</v>
+        <v>0.7820305530048586</v>
       </c>
       <c r="C7">
-        <v>0.1804162550391197</v>
+        <v>0.2059827198711304</v>
       </c>
       <c r="D7">
-        <v>0.1410057284646768</v>
+        <v>0.1509891804323331</v>
       </c>
       <c r="E7">
-        <v>0.1420018285600797</v>
+        <v>0.1459817178962339</v>
       </c>
       <c r="F7">
-        <v>1.002302799701631</v>
+        <v>0.9377098372305213</v>
       </c>
       <c r="G7">
-        <v>0.6774509908459834</v>
+        <v>0.6073969002563047</v>
       </c>
       <c r="H7">
-        <v>0.002884927222446487</v>
+        <v>0.002391115613022188</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5148511997206953</v>
+        <v>0.4943905849824688</v>
       </c>
       <c r="K7">
-        <v>0.4405298326835556</v>
+        <v>0.3879328017869632</v>
       </c>
       <c r="L7">
-        <v>0.1772124699765101</v>
+        <v>0.2009398813645689</v>
       </c>
       <c r="M7">
-        <v>0.9752454300496538</v>
+        <v>0.1004874236706357</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1775339707568406</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9664093054059606</v>
       </c>
       <c r="P7">
-        <v>0.9723373426436783</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.9208986248551216</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.000463203857606</v>
+        <v>0.9386098729343075</v>
       </c>
       <c r="C8">
-        <v>0.2184056715035467</v>
+        <v>0.2508181498392048</v>
       </c>
       <c r="D8">
-        <v>0.1682562549873836</v>
+        <v>0.1810880998319107</v>
       </c>
       <c r="E8">
-        <v>0.1684870728419554</v>
+        <v>0.1729490386054948</v>
       </c>
       <c r="F8">
-        <v>1.08001239862601</v>
+        <v>1.000679798028543</v>
       </c>
       <c r="G8">
-        <v>0.7245070396399882</v>
+        <v>0.6492535311496255</v>
       </c>
       <c r="H8">
-        <v>0.001041195340842238</v>
+        <v>0.0008381738446618936</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5300348094251035</v>
+        <v>0.497920745989731</v>
       </c>
       <c r="K8">
-        <v>0.4502118795102454</v>
+        <v>0.3908063480602024</v>
       </c>
       <c r="L8">
-        <v>0.2094821839201586</v>
+        <v>0.195793083326695</v>
       </c>
       <c r="M8">
-        <v>1.180489013125339</v>
+        <v>0.1058518071729502</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2087244787858893</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.165074425244711</v>
       </c>
       <c r="P8">
-        <v>0.9242337611209042</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.8749341919158766</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.343734021077267</v>
+        <v>1.247462084766369</v>
       </c>
       <c r="C9">
-        <v>0.2934673306486957</v>
+        <v>0.3423401386711191</v>
       </c>
       <c r="D9">
-        <v>0.2218695748094177</v>
+        <v>0.239482608109455</v>
       </c>
       <c r="E9">
-        <v>0.2206292878752691</v>
+        <v>0.2257751277173412</v>
       </c>
       <c r="F9">
-        <v>1.241172202958737</v>
+        <v>1.136512083416633</v>
       </c>
       <c r="G9">
-        <v>0.8247947763838823</v>
+        <v>0.7269559336818077</v>
       </c>
       <c r="H9">
-        <v>4.934160559821876E-05</v>
+        <v>5.89715151619874E-05</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5645185680228622</v>
+        <v>0.5269583781682741</v>
       </c>
       <c r="K9">
-        <v>0.474109786542634</v>
+        <v>0.4021493187639109</v>
       </c>
       <c r="L9">
-        <v>0.2730175963752401</v>
+        <v>0.187461749980212</v>
       </c>
       <c r="M9">
-        <v>1.585697047296094</v>
+        <v>0.1230475651078535</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2702180666857714</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.560618611674499</v>
       </c>
       <c r="P9">
-        <v>0.8369291106526262</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7924498901536134</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.592089618541479</v>
+        <v>1.466411468748163</v>
       </c>
       <c r="C10">
-        <v>0.3455290029875755</v>
+        <v>0.4026170952257928</v>
       </c>
       <c r="D10">
-        <v>0.2553013441811203</v>
+        <v>0.2777513180391082</v>
       </c>
       <c r="E10">
-        <v>0.2491959964899806</v>
+        <v>0.2550476786887756</v>
       </c>
       <c r="F10">
-        <v>1.346296121950132</v>
+        <v>1.214303438099307</v>
       </c>
       <c r="G10">
-        <v>0.891949322589042</v>
+        <v>0.7979476792786357</v>
       </c>
       <c r="H10">
-        <v>0.001259171715631613</v>
+        <v>0.001169168002168153</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5870306464036048</v>
+        <v>0.5132819964854178</v>
       </c>
       <c r="K10">
-        <v>0.4893220503237927</v>
+        <v>0.4046481827452908</v>
       </c>
       <c r="L10">
-        <v>0.3050032281081627</v>
+        <v>0.1788117898947803</v>
       </c>
       <c r="M10">
-        <v>1.875847223827975</v>
+        <v>0.1363059475088093</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3003380216849223</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.835307316989457</v>
       </c>
       <c r="P10">
-        <v>0.7746298431978396</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.7334227359499499</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.65238431317033</v>
+        <v>1.518572975754324</v>
       </c>
       <c r="C11">
-        <v>0.3377934402536766</v>
+        <v>0.3850077331576927</v>
       </c>
       <c r="D11">
-        <v>0.218936102483724</v>
+        <v>0.2424185669139547</v>
       </c>
       <c r="E11">
-        <v>0.1825810471422216</v>
+        <v>0.1879412847557518</v>
       </c>
       <c r="F11">
-        <v>1.228147680778108</v>
+        <v>1.087223173782334</v>
       </c>
       <c r="G11">
-        <v>0.8185176263383909</v>
+        <v>0.7718138949079929</v>
       </c>
       <c r="H11">
-        <v>0.01979999938887289</v>
+        <v>0.01965987869333929</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5457274226837256</v>
+        <v>0.4204652626653029</v>
       </c>
       <c r="K11">
-        <v>0.4478278916769369</v>
+        <v>0.3627113814590146</v>
       </c>
       <c r="L11">
-        <v>0.2037822524828528</v>
+        <v>0.1598963423024564</v>
       </c>
       <c r="M11">
-        <v>1.91855865213239</v>
+        <v>0.1250870699439304</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1992145219103776</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.860943432961022</v>
       </c>
       <c r="P11">
-        <v>0.7276698688893628</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7007245043224133</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.649679628127217</v>
+        <v>1.517785155316744</v>
       </c>
       <c r="C12">
-        <v>0.3203857509223837</v>
+        <v>0.3600006880583351</v>
       </c>
       <c r="D12">
-        <v>0.1839142063456478</v>
+        <v>0.2060328375494436</v>
       </c>
       <c r="E12">
-        <v>0.1302038322541534</v>
+        <v>0.1346733384516554</v>
       </c>
       <c r="F12">
-        <v>1.110018524845046</v>
+        <v>0.973972364164041</v>
       </c>
       <c r="G12">
-        <v>0.744179899500736</v>
+        <v>0.7223960890145946</v>
       </c>
       <c r="H12">
-        <v>0.05826737387840808</v>
+        <v>0.05813276609758589</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5067755950131527</v>
+        <v>0.36930431192458</v>
       </c>
       <c r="K12">
-        <v>0.410583404677844</v>
+        <v>0.3303926880827497</v>
       </c>
       <c r="L12">
-        <v>0.1318057297439381</v>
+        <v>0.1474104875956499</v>
       </c>
       <c r="M12">
-        <v>1.891987701273308</v>
+        <v>0.1137346412728917</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1280323695729351</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.828251921243492</v>
       </c>
       <c r="P12">
-        <v>0.7067154760404541</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.6924716890555178</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.598320021270496</v>
+        <v>1.477790033163558</v>
       </c>
       <c r="C13">
-        <v>0.2946776574239607</v>
+        <v>0.3292706512962695</v>
       </c>
       <c r="D13">
-        <v>0.1481508681299175</v>
+        <v>0.1667288009052328</v>
       </c>
       <c r="E13">
-        <v>0.08602284182673614</v>
+        <v>0.08928474804383058</v>
       </c>
       <c r="F13">
-        <v>0.9853220586720255</v>
+        <v>0.8669450843321727</v>
       </c>
       <c r="G13">
-        <v>0.6648292738695289</v>
+        <v>0.6455849591663139</v>
       </c>
       <c r="H13">
-        <v>0.113681297488057</v>
+        <v>0.1135919857773473</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4673087967549634</v>
+        <v>0.3489364151867562</v>
       </c>
       <c r="K13">
-        <v>0.3743295755007168</v>
+        <v>0.3041469266570935</v>
       </c>
       <c r="L13">
-        <v>0.07841674550006772</v>
+        <v>0.1387577302719158</v>
       </c>
       <c r="M13">
-        <v>1.810767685556243</v>
+        <v>0.1022749642886964</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07588787258889695</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.75218719431416</v>
       </c>
       <c r="P13">
-        <v>0.7035766887290587</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.6994933985761982</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.540611728167136</v>
+        <v>1.432087208189529</v>
       </c>
       <c r="C14">
-        <v>0.2731522821727026</v>
+        <v>0.3052207026352676</v>
       </c>
       <c r="D14">
-        <v>0.1234076972317411</v>
+        <v>0.1388082469568701</v>
       </c>
       <c r="E14">
-        <v>0.06040530012788992</v>
+        <v>0.06279188001101232</v>
       </c>
       <c r="F14">
-        <v>0.8964432560718905</v>
+        <v>0.7949581867221269</v>
       </c>
       <c r="G14">
-        <v>0.607824470991801</v>
+        <v>0.5820341275853167</v>
       </c>
       <c r="H14">
-        <v>0.1627815154152472</v>
+        <v>0.1627302514018538</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.4397999787604903</v>
+        <v>0.3458210388110601</v>
       </c>
       <c r="K14">
-        <v>0.3497630527862761</v>
+        <v>0.2883372350007711</v>
       </c>
       <c r="L14">
-        <v>0.05243444175149392</v>
+        <v>0.134180555152799</v>
       </c>
       <c r="M14">
-        <v>1.729668713566383</v>
+        <v>0.09433543139926925</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05084185619710624</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.679401216788392</v>
       </c>
       <c r="P14">
-        <v>0.7098957039716751</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7107367113631113</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.516418022183387</v>
+        <v>1.412612241120684</v>
       </c>
       <c r="C15">
-        <v>0.2661758022904905</v>
+        <v>0.2979780541823231</v>
       </c>
       <c r="D15">
-        <v>0.1169381495782318</v>
+        <v>0.1312554545999376</v>
       </c>
       <c r="E15">
-        <v>0.05469980733404789</v>
+        <v>0.05685898623878671</v>
       </c>
       <c r="F15">
-        <v>0.8730765689287949</v>
+        <v>0.7777039805051231</v>
       </c>
       <c r="G15">
-        <v>0.5927331207346924</v>
+        <v>0.5621053686949296</v>
       </c>
       <c r="H15">
-        <v>0.175198496250502</v>
+        <v>0.1751608782566194</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4329447338901389</v>
+        <v>0.3496899841684495</v>
       </c>
       <c r="K15">
-        <v>0.3438930516655851</v>
+        <v>0.2853946228392346</v>
       </c>
       <c r="L15">
-        <v>0.0475052039454642</v>
+        <v>0.1336405144359034</v>
       </c>
       <c r="M15">
-        <v>1.698588698237302</v>
+        <v>0.09234016454934135</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04618231206526602</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.652359670996844</v>
       </c>
       <c r="P15">
-        <v>0.7143926724899021</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7155633008158659</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.420880404191763</v>
+        <v>1.332831423068512</v>
       </c>
       <c r="C16">
-        <v>0.249722002581251</v>
+        <v>0.2839899940527175</v>
       </c>
       <c r="D16">
-        <v>0.1109879937969254</v>
+        <v>0.1224757578431337</v>
       </c>
       <c r="E16">
-        <v>0.05292956041341412</v>
+        <v>0.05488676434723061</v>
       </c>
       <c r="F16">
-        <v>0.8550810542971874</v>
+        <v>0.7775437672040866</v>
       </c>
       <c r="G16">
-        <v>0.5806633441520432</v>
+        <v>0.5235867204979741</v>
       </c>
       <c r="H16">
-        <v>0.1621002726048744</v>
+        <v>0.1620985904936987</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.4314117596860569</v>
+        <v>0.3914945513441666</v>
       </c>
       <c r="K16">
-        <v>0.3446761352278926</v>
+        <v>0.29333361637255</v>
       </c>
       <c r="L16">
-        <v>0.04654303622774236</v>
+        <v>0.1390749034152563</v>
       </c>
       <c r="M16">
-        <v>1.592044303758314</v>
+        <v>0.09134908584528034</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04574065081529888</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.562739086543587</v>
       </c>
       <c r="P16">
-        <v>0.7392239385905111</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7339477553416032</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.378292699446433</v>
+        <v>1.294987146466411</v>
       </c>
       <c r="C17">
-        <v>0.2484056363789477</v>
+        <v>0.2851793164583114</v>
       </c>
       <c r="D17">
-        <v>0.119109110525244</v>
+        <v>0.1301713701725618</v>
       </c>
       <c r="E17">
-        <v>0.06402168569810485</v>
+        <v>0.06621767428475067</v>
       </c>
       <c r="F17">
-        <v>0.8878875415166192</v>
+        <v>0.8141907464315921</v>
       </c>
       <c r="G17">
-        <v>0.6014596610178842</v>
+        <v>0.5306215297131871</v>
       </c>
       <c r="H17">
-        <v>0.1241842158879223</v>
+        <v>0.1241843192365906</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.4448011999553216</v>
+        <v>0.4226835150786314</v>
       </c>
       <c r="K17">
-        <v>0.3582836194252899</v>
+        <v>0.307474894883768</v>
       </c>
       <c r="L17">
-        <v>0.05747198270371001</v>
+        <v>0.1458697908651452</v>
       </c>
       <c r="M17">
-        <v>1.553293629101859</v>
+        <v>0.09444553087752183</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05667585925080232</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.530669777743469</v>
       </c>
       <c r="P17">
-        <v>0.7550288164568633</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.7436680349726696</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.375900323646533</v>
+        <v>1.290007390439456</v>
       </c>
       <c r="C18">
-        <v>0.2601181773275698</v>
+        <v>0.3010294624700975</v>
       </c>
       <c r="D18">
-        <v>0.1417599454263296</v>
+        <v>0.1539545266237781</v>
       </c>
       <c r="E18">
-        <v>0.09243643669156398</v>
+        <v>0.09522420023963107</v>
       </c>
       <c r="F18">
-        <v>0.9704648109023566</v>
+        <v>0.8918378491675725</v>
       </c>
       <c r="G18">
-        <v>0.6540400857552697</v>
+        <v>0.5714454254402312</v>
       </c>
       <c r="H18">
-        <v>0.07133635315211961</v>
+        <v>0.07133642487432468</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4730031153474243</v>
+        <v>0.4560350557118369</v>
       </c>
       <c r="K18">
-        <v>0.3850591738663631</v>
+        <v>0.3302161053854675</v>
       </c>
       <c r="L18">
-        <v>0.08989022662809276</v>
+        <v>0.1552995273525219</v>
       </c>
       <c r="M18">
-        <v>1.567988367470008</v>
+        <v>0.1018356596342649</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08870463731543055</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.547054753304025</v>
       </c>
       <c r="P18">
-        <v>0.7674226931102117</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.7488350753921171</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.405874458339213</v>
+        <v>1.312259575088888</v>
       </c>
       <c r="C19">
-        <v>0.2819215248333649</v>
+        <v>0.3286166065136911</v>
       </c>
       <c r="D19">
-        <v>0.1769384809339698</v>
+        <v>0.1913984645715487</v>
       </c>
       <c r="E19">
-        <v>0.1404581363271795</v>
+        <v>0.1441186546951236</v>
       </c>
       <c r="F19">
-        <v>1.091608282031984</v>
+        <v>1.001906005807058</v>
       </c>
       <c r="G19">
-        <v>0.7308546781922871</v>
+        <v>0.6361106979274638</v>
       </c>
       <c r="H19">
-        <v>0.02618916665748117</v>
+        <v>0.02619243078418521</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5121226681419131</v>
+        <v>0.4928767461016577</v>
       </c>
       <c r="K19">
-        <v>0.4217196340587748</v>
+        <v>0.3595775586866594</v>
       </c>
       <c r="L19">
-        <v>0.1525087055779721</v>
+        <v>0.166632898936232</v>
       </c>
       <c r="M19">
-        <v>1.624775179532691</v>
+        <v>0.1126555815420325</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1505773852878889</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.602549713469926</v>
       </c>
       <c r="P19">
-        <v>0.779961982243524</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.7527598669063429</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.526461237634322</v>
+        <v>1.410922170090487</v>
       </c>
       <c r="C20">
-        <v>0.331668894330619</v>
+        <v>0.3887188166465307</v>
       </c>
       <c r="D20">
-        <v>0.2462555492180769</v>
+        <v>0.2664036501290354</v>
       </c>
       <c r="E20">
-        <v>0.2412624965881207</v>
+        <v>0.246685465007765</v>
       </c>
       <c r="F20">
-        <v>1.317415033454779</v>
+        <v>1.198456219951865</v>
       </c>
       <c r="G20">
-        <v>0.8733762189966114</v>
+        <v>0.7666525868411043</v>
       </c>
       <c r="H20">
-        <v>0.0007943386592916823</v>
+        <v>0.0007564850037509174</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5806253711908624</v>
+        <v>0.5356321284210139</v>
       </c>
       <c r="K20">
-        <v>0.4848332559707202</v>
+        <v>0.4058796982735728</v>
       </c>
       <c r="L20">
-        <v>0.295952060691647</v>
+        <v>0.1817626775397656</v>
       </c>
       <c r="M20">
-        <v>1.799037155124296</v>
+        <v>0.1334030709071889</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.292029662919532</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.767381449469383</v>
       </c>
       <c r="P20">
-        <v>0.7905011020264929</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.7493107987790388</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.727330896348718</v>
+        <v>1.574572494093758</v>
       </c>
       <c r="C21">
-        <v>0.3774971555251057</v>
+        <v>0.4307396692618397</v>
       </c>
       <c r="D21">
-        <v>0.281565965017208</v>
+        <v>0.3116221231892666</v>
       </c>
       <c r="E21">
-        <v>0.2787995998742545</v>
+        <v>0.286314144722553</v>
       </c>
       <c r="F21">
-        <v>1.430852395941443</v>
+        <v>1.256877555152613</v>
       </c>
       <c r="G21">
-        <v>0.9461352523353241</v>
+        <v>0.9048657494069658</v>
       </c>
       <c r="H21">
-        <v>0.002277786471326815</v>
+        <v>0.001999799182115902</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6085351288670324</v>
+        <v>0.4400588275227051</v>
       </c>
       <c r="K21">
-        <v>0.5066965224928097</v>
+        <v>0.4036483477200932</v>
       </c>
       <c r="L21">
-        <v>0.3439589787354294</v>
+        <v>0.1737186256565906</v>
       </c>
       <c r="M21">
-        <v>2.038708214646419</v>
+        <v>0.1426787528217552</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3370031834037945</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.968974766638695</v>
       </c>
       <c r="P21">
-        <v>0.7486842528561937</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7035177663554215</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.856231672419398</v>
+        <v>1.678205339892372</v>
       </c>
       <c r="C22">
-        <v>0.4057732990600869</v>
+        <v>0.4550333176767367</v>
       </c>
       <c r="D22">
-        <v>0.3015821324764971</v>
+        <v>0.3385644318366019</v>
       </c>
       <c r="E22">
-        <v>0.2983380879185162</v>
+        <v>0.3072923437777746</v>
       </c>
       <c r="F22">
-        <v>1.496500187303596</v>
+        <v>1.284518350114439</v>
       </c>
       <c r="G22">
-        <v>0.9887807870059078</v>
+        <v>1.000231098787438</v>
       </c>
       <c r="H22">
-        <v>0.003703374631192302</v>
+        <v>0.003181903528990615</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.624404308191842</v>
+        <v>0.3786075950166747</v>
       </c>
       <c r="K22">
-        <v>0.5188151154795548</v>
+        <v>0.3994794285702881</v>
       </c>
       <c r="L22">
-        <v>0.3678083089698703</v>
+        <v>0.1676481411376436</v>
       </c>
       <c r="M22">
-        <v>2.190986721716342</v>
+        <v>0.1479613367509316</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3587995891267468</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.093762563351447</v>
       </c>
       <c r="P22">
-        <v>0.7208717879579787</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.6741626678651107</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.787365546242427</v>
+        <v>1.624555646109968</v>
       </c>
       <c r="C23">
-        <v>0.3906640036489364</v>
+        <v>0.4436912229227232</v>
       </c>
       <c r="D23">
-        <v>0.2908909350374955</v>
+        <v>0.3233702297307559</v>
       </c>
       <c r="E23">
-        <v>0.2878997369173817</v>
+        <v>0.2958907681315139</v>
       </c>
       <c r="F23">
-        <v>1.461316271039749</v>
+        <v>1.273909241944509</v>
       </c>
       <c r="G23">
-        <v>0.9658874796762404</v>
+        <v>0.9392736837271372</v>
       </c>
       <c r="H23">
-        <v>0.002902024938908676</v>
+        <v>0.00252673719655383</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6158636734352285</v>
+        <v>0.4217356579595588</v>
       </c>
       <c r="K23">
-        <v>0.5122727241283158</v>
+        <v>0.4033122569408434</v>
       </c>
       <c r="L23">
-        <v>0.355065428711498</v>
+        <v>0.1714166471698491</v>
       </c>
       <c r="M23">
-        <v>2.109627485095587</v>
+        <v>0.1457867847021497</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3473356660261402</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.030680985227463</v>
       </c>
       <c r="P23">
-        <v>0.7356239904138135</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.6901772622495632</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.527963635393434</v>
+        <v>1.411842064538888</v>
       </c>
       <c r="C24">
-        <v>0.3338030126234912</v>
+        <v>0.3915236561091149</v>
       </c>
       <c r="D24">
-        <v>0.2505653670992842</v>
+        <v>0.2709367005370922</v>
       </c>
       <c r="E24">
-        <v>0.2485737810552635</v>
+        <v>0.2540951762439434</v>
       </c>
       <c r="F24">
-        <v>1.331147662384424</v>
+        <v>1.211167396363408</v>
       </c>
       <c r="G24">
-        <v>0.8819761982969965</v>
+        <v>0.7734790149811914</v>
       </c>
       <c r="H24">
-        <v>0.0007242512600438289</v>
+        <v>0.0006846337603096941</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5850221513048268</v>
+        <v>0.5404842980340021</v>
       </c>
       <c r="K24">
-        <v>0.4890730379309929</v>
+        <v>0.4093834073940172</v>
       </c>
       <c r="L24">
-        <v>0.3070864932218598</v>
+        <v>0.1831744986437052</v>
       </c>
       <c r="M24">
-        <v>1.803235945344198</v>
+        <v>0.1346187379112855</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3030748945771506</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.771659278501943</v>
       </c>
       <c r="P24">
-        <v>0.7934635577060227</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.7511156408342492</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.2505467495549</v>
+        <v>1.164761006856992</v>
       </c>
       <c r="C25">
-        <v>0.2730787839967093</v>
+        <v>0.3182504691352506</v>
       </c>
       <c r="D25">
-        <v>0.2073351166860533</v>
+        <v>0.2232395898688111</v>
       </c>
       <c r="E25">
-        <v>0.2064862199538524</v>
+        <v>0.2113567572779331</v>
       </c>
       <c r="F25">
-        <v>1.196529382222792</v>
+        <v>1.101243180438473</v>
       </c>
       <c r="G25">
-        <v>0.7967125263901238</v>
+        <v>0.7004403818719567</v>
       </c>
       <c r="H25">
-        <v>1.102498156724252E-05</v>
+        <v>3.612573541422748E-06</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5546432438884921</v>
+        <v>0.5267503644100628</v>
       </c>
       <c r="K25">
-        <v>0.4670737180746372</v>
+        <v>0.3996060695903161</v>
       </c>
       <c r="L25">
-        <v>0.2557809366690549</v>
+        <v>0.1900063188308678</v>
       </c>
       <c r="M25">
-        <v>1.475680083301569</v>
+        <v>0.1180589129724048</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2536516096246544</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.455230690703331</v>
       </c>
       <c r="P25">
-        <v>0.8597579245884752</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8144498750431204</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
